--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -134,10 +134,55 @@
     <t>88BB2-072</t>
   </si>
   <si>
-    <t>Hex Keypad</t>
-  </si>
-  <si>
     <t>LCD Display</t>
+  </si>
+  <si>
+    <t>Linear Servo</t>
+  </si>
+  <si>
+    <t>16-key numeric keypad</t>
+  </si>
+  <si>
+    <t>Hex Buffer</t>
+  </si>
+  <si>
+    <t>CMOS, non-inverting HEX Buffer</t>
+  </si>
+  <si>
+    <t>Single H-Bridge</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>Ultra Bright, common cathode</t>
+  </si>
+  <si>
+    <t>4-inch</t>
+  </si>
+  <si>
+    <t>128x169 color LCD module w/ SD slot</t>
+  </si>
+  <si>
+    <t>PicKit3</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Before Taxes and Shipping</t>
+  </si>
+  <si>
+    <t>ST7735R</t>
+  </si>
+  <si>
+    <t>Sitronix</t>
   </si>
 </sst>
 </file>
@@ -564,13 +609,13 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
@@ -673,11 +718,11 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G7" si="0">(E4 * F4)</f>
+        <f t="shared" ref="G4:G6" si="0">(E4 * F4)</f>
         <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,177 +773,272 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>7.7</v>
+        <v>44.95</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-      <c r="H7" s="1"/>
+        <f t="shared" ref="G7" si="1">(E7 * F7)</f>
+        <v>44.95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>7.7</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:G10" si="1">(E8 * F8)</f>
-        <v>16</v>
-      </c>
-      <c r="H8" s="1"/>
+        <f>(E8 * F8)</f>
+        <v>30.8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="H9" s="1"/>
+        <f t="shared" ref="G9:G11" si="2">(E9 * F9)</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>7.49</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H10" s="1"/>
+        <f t="shared" si="2"/>
+        <v>14.98</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11" si="2">(E11 * F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
+        <f t="shared" si="2"/>
+        <v>33.9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12:G16" si="3">(E12 * F12)</f>
+        <v>29.9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.98</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>12.450000000000001</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.99</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
-        <f>SUM(G2:G10)</f>
-        <v>478.85</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <f>SUM(G2:G16)</f>
+        <v>462.69</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -911,7 +1051,7 @@
       <c r="H18" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B12:H12">
+  <conditionalFormatting sqref="B17:H17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -943,7 +1083,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B12:H12</xm:sqref>
+          <xm:sqref>B17:H17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Item</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Ultra Bright, common cathode</t>
   </si>
   <si>
-    <t>4-inch</t>
-  </si>
-  <si>
     <t>128x169 color LCD module w/ SD slot</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
   </si>
   <si>
     <t>Sitronix</t>
+  </si>
+  <si>
+    <t>MLH-110S-B01K-M8V</t>
+  </si>
+  <si>
+    <t>Tokyo Ko-On Denpa</t>
+  </si>
+  <si>
+    <t>4-inch, (5-11.5 V)</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +623,7 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
@@ -779,10 +785,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -888,13 +894,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>16.95</v>
@@ -915,10 +921,14 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="1">
         <v>14.95</v>
       </c>
@@ -1028,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>

--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Item</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>4-inch, (5-11.5 V)</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Card holder spring</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:G16" si="3">(E12 * F12)</f>
+        <f t="shared" ref="G12:G17" si="3">(E12 * F12)</f>
         <v>29.9</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1012,56 +1018,70 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>3.99</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9">
-        <f>SUM(G2:G16)</f>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <f>SUM(G2:G17)</f>
         <v>462.69</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:H17">
+  <conditionalFormatting sqref="B18:H18">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1093,7 +1113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B17:H17</xm:sqref>
+          <xm:sqref>B18:H18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castia\Documents\GitHub\ee478\Final Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Item</t>
   </si>
@@ -195,6 +190,84 @@
   </si>
   <si>
     <t>Card holder spring</t>
+  </si>
+  <si>
+    <t>Soldering tip</t>
+  </si>
+  <si>
+    <t>0.8mm narrow tip</t>
+  </si>
+  <si>
+    <t>Xytronic</t>
+  </si>
+  <si>
+    <t>44-415402</t>
+  </si>
+  <si>
+    <t>voltage regulator</t>
+  </si>
+  <si>
+    <t>3.3V Linear Regulator</t>
+  </si>
+  <si>
+    <t>NTE Electronics</t>
+  </si>
+  <si>
+    <t>NTE1904</t>
+  </si>
+  <si>
+    <t>Ultra Bright, common anode</t>
+  </si>
+  <si>
+    <t>VUPN6559</t>
+  </si>
+  <si>
+    <t>VUPN6563</t>
+  </si>
+  <si>
+    <t>solder wick</t>
+  </si>
+  <si>
+    <t>0.075" solderwick</t>
+  </si>
+  <si>
+    <t>MG Chemicals</t>
+  </si>
+  <si>
+    <t>MG-425</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Sn63 / Pb37 0.032" No Clean Leaded Solder - 1/2 lb</t>
+  </si>
+  <si>
+    <t>MG-4865-227G</t>
+  </si>
+  <si>
+    <t>Wire Stripper</t>
+  </si>
+  <si>
+    <t>16/30 wire stripper</t>
+  </si>
+  <si>
+    <t>ProStrip</t>
+  </si>
+  <si>
+    <t>15005C</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
+  </si>
+  <si>
+    <t>3-hole island breadboard</t>
+  </si>
+  <si>
+    <t>EuroCard</t>
+  </si>
+  <si>
+    <t>ECS3-H</t>
   </si>
 </sst>
 </file>
@@ -302,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -313,6 +386,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,7 +450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,16 +694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
@@ -942,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:G17" si="3">(E12 * F12)</f>
+        <f t="shared" ref="G12:G24" si="3">(E12 * F12)</f>
         <v>29.9</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1006,11 +1082,11 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>12.450000000000001</v>
+        <v>22.410000000000004</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
@@ -1018,70 +1094,262 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>9.66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="1">
-        <v>3.99</v>
+        <v>2.99</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
+        <v>2.99</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16.75</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>16.75</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>15.95</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>31.8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>7.95</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1">
         <v>3.99</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23" si="4">(E23 * F23)</f>
+        <v>3.99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>11.97</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>462.69</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9">
+        <f>SUM(G2:G24)</f>
+        <v>569.72000000000014</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:H18">
+  <conditionalFormatting sqref="B25:H25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1113,7 +1381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B18:H18</xm:sqref>
+          <xm:sqref>B25:H25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Item</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>ECS3-H</t>
+  </si>
+  <si>
+    <t>lever-actuated, micro, 1A</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1078,9 @@
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">

--- a/Final Project/Bill of Materials Final Project.xlsx
+++ b/Final Project/Bill of Materials Final Project.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castia\Documents\GitHub\ee478\Final Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -453,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +493,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,7 +705,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
